--- a/04_tables/arrest_charges.xlsx
+++ b/04_tables/arrest_charges.xlsx
@@ -42,12 +42,12 @@
     <t>ASSAULT ON FEMALE</t>
   </si>
   <si>
+    <t>RESISTING ARREST</t>
+  </si>
+  <si>
     <t>DRUG PARAPHERNALIA</t>
   </si>
   <si>
-    <t>RESISTING ARREST</t>
-  </si>
-  <si>
     <t>2ND DEGREE TRESPASS</t>
   </si>
   <si>
@@ -57,58 +57,67 @@
     <t>CONSUME ALCOHOLIC BEVERAGE LESS THAN 21</t>
   </si>
   <si>
+    <t>BREAKING/LARC-FELONY</t>
+  </si>
+  <si>
     <t>PUBLIC CONSUMPTION</t>
   </si>
   <si>
-    <t>BREAKING/LARC-FELONY</t>
-  </si>
-  <si>
     <t>DRUNK / DISRUPTIVE</t>
   </si>
   <si>
+    <t>BREAKING/ENTER-MISD</t>
+  </si>
+  <si>
+    <t>TRESPASSING</t>
+  </si>
+  <si>
     <t>PROBATION VIOLATION</t>
   </si>
   <si>
-    <t>TRESPASSING</t>
-  </si>
-  <si>
-    <t>BREAKING/ENTER-MISD</t>
-  </si>
-  <si>
     <t>LARCENY</t>
   </si>
   <si>
+    <t>DAMAGE-PERSONAL PROP</t>
+  </si>
+  <si>
+    <t>POSS COCAINE FEL</t>
+  </si>
+  <si>
+    <t>AFFRAY/ASSAULT &amp; BATTERY</t>
+  </si>
+  <si>
+    <t>VIOLATION DOMESTIC VIOLENCE PROTECTIVE ORDER</t>
+  </si>
+  <si>
+    <t>1ST DEGREE TRESPASS</t>
+  </si>
+  <si>
     <t>LITTERING</t>
   </si>
   <si>
-    <t>AFFRAY/ASSAULT &amp; BATTERY</t>
-  </si>
-  <si>
-    <t>POSS COCAINE FEL</t>
-  </si>
-  <si>
-    <t>VIOLATION DOMESTIC VIOLENCE PROTECTIVE ORDER</t>
-  </si>
-  <si>
-    <t>1ST DEGREE TRESPASS</t>
-  </si>
-  <si>
-    <t>DAMAGE-PERSONAL PROP</t>
-  </si>
-  <si>
     <t>CONSUMING ON UNAUTHORIZED PREMISES</t>
   </si>
   <si>
+    <t>BURGLARY-1ST DEGREE</t>
+  </si>
+  <si>
     <t>ASSAULT &amp; BATTERY</t>
   </si>
   <si>
-    <t>BURGLARY-1ST DEGREE</t>
+    <t>DWLR NOT IMPARIED REV</t>
   </si>
   <si>
     <t>UNDERAGE POSS OF SPIRITIOUS LIQUOR</t>
   </si>
   <si>
-    <t>DWLR NOT IMPARIED REV</t>
+    <t>WARRANT FOR ARREST</t>
+  </si>
+  <si>
+    <t>ROBBERY</t>
+  </si>
+  <si>
+    <t>SCHOOL-FAIL TO ATTEND</t>
   </si>
   <si>
     <t>GIVE/SELL MALT BEV TO MINOR</t>
@@ -117,289 +126,280 @@
     <t>B&amp;E-VEHICLE</t>
   </si>
   <si>
-    <t>ROBBERY</t>
-  </si>
-  <si>
-    <t>SCHOOL-FAIL TO ATTEND</t>
+    <t>POSS OF STOLEN GOODS</t>
+  </si>
+  <si>
+    <t>DAMAGE-REAL PROPERTY</t>
   </si>
   <si>
     <t>POSS /CONSUMING ALCOHOL PASSENGER AREA OF VEH</t>
   </si>
   <si>
-    <t>POSS OF STOLEN GOODS</t>
-  </si>
-  <si>
-    <t>WARRANT FOR ARREST</t>
-  </si>
-  <si>
-    <t>DAMAGE-REAL PROPERTY</t>
+    <t>REC/POSS STOLE MV</t>
+  </si>
+  <si>
+    <t>PAROLE VIOLATION</t>
+  </si>
+  <si>
+    <t>INDECENT EXPOSURE</t>
+  </si>
+  <si>
+    <t>LARCENY FROM PERSON</t>
+  </si>
+  <si>
+    <t>CRUELTY TO ANIMALS</t>
+  </si>
+  <si>
+    <t>BURGLARY-2ND DEGREE</t>
+  </si>
+  <si>
+    <t>POSSESSION ON UNAUTHORIZED PREMISES</t>
+  </si>
+  <si>
+    <t>DWLR IMPAIRED REV</t>
+  </si>
+  <si>
+    <t>POSS OR MANUFACTURE  FRAUDULENT FORMS OF ID</t>
+  </si>
+  <si>
+    <t>MISUSE OF PUBLIC SEATING</t>
   </si>
   <si>
     <t>COMMON LAW ROBBERY</t>
   </si>
   <si>
+    <t>SIMPLE ASSAULT</t>
+  </si>
+  <si>
+    <t>CYBERSTALKING</t>
+  </si>
+  <si>
+    <t>FICT/ALT TITLE/REG CARD/TAG</t>
+  </si>
+  <si>
+    <t>POSS MARIJUANA MISD</t>
+  </si>
+  <si>
+    <t>DRIVING WHILE IMPAIRED</t>
+  </si>
+  <si>
+    <t>PWISD II CS</t>
+  </si>
+  <si>
     <t>ASSAULT ON GOVERNMENT OFFICIAL</t>
   </si>
   <si>
-    <t>CRUELTY TO ANIMALS</t>
-  </si>
-  <si>
-    <t>LARCENY FROM PERSON</t>
-  </si>
-  <si>
-    <t>POSS OR MANUFACTURE  FRAUDULENT FORMS OF ID</t>
-  </si>
-  <si>
     <t>NOISE ORDINANCE VIOLATION</t>
   </si>
   <si>
-    <t>INDECENT EXPOSURE</t>
-  </si>
-  <si>
-    <t>FICT/ALT TITLE/REG CARD/TAG</t>
-  </si>
-  <si>
-    <t>POSS MARIJUANA MISD</t>
-  </si>
-  <si>
-    <t>BURGLARY-2ND DEGREE</t>
-  </si>
-  <si>
-    <t>MISUSE OF PUBLIC SEATING</t>
-  </si>
-  <si>
     <t>REC STOLEN GOODS</t>
   </si>
   <si>
-    <t>POSSESSION ON UNAUTHORIZED PREMISES</t>
-  </si>
-  <si>
-    <t>CYBERSTALKING</t>
-  </si>
-  <si>
-    <t>DWLR IMPAIRED REV</t>
-  </si>
-  <si>
-    <t>PWISD II CS</t>
-  </si>
-  <si>
-    <t>PAROLE VIOLATION</t>
-  </si>
-  <si>
-    <t>DRIVING WHILE IMPAIRED</t>
-  </si>
-  <si>
-    <t>SIMPLE ASSAULT</t>
-  </si>
-  <si>
-    <t>REC/POSS STOLE MV</t>
+    <t>HIT/RUN LEAVE SCENE OF PROPERTY DAMAGE</t>
+  </si>
+  <si>
+    <t>NDL - OPERATOR OR CHAUFFER</t>
+  </si>
+  <si>
+    <t>COMMON LAW-GOING ARMED</t>
+  </si>
+  <si>
+    <t>SELL COCAINE</t>
+  </si>
+  <si>
+    <t>POSS OR MANUFACUTRE OF FRADUENT FORMS OF IDENTIFICATION</t>
+  </si>
+  <si>
+    <t>FTA-DWLR</t>
+  </si>
+  <si>
+    <t>PAROLE OR PROBATION VIOLATION</t>
+  </si>
+  <si>
+    <t>RESIST DELAY AND OBSTRUCT</t>
+  </si>
+  <si>
+    <t>ASSAULT ON OFFICER/SIMPLE ASSAULT</t>
+  </si>
+  <si>
+    <t>COMMUNICATE THREATS</t>
+  </si>
+  <si>
+    <t>CRUELTY TO ANIMALS (CITY ORDINANCE)</t>
+  </si>
+  <si>
+    <t>FTA OPEN CONTAINER</t>
+  </si>
+  <si>
+    <t>PEEPING</t>
+  </si>
+  <si>
+    <t>HIT &amp; RUN - PD</t>
+  </si>
+  <si>
+    <t>VANDALISM</t>
+  </si>
+  <si>
+    <t>AWIK/SERIOUS INJURY</t>
+  </si>
+  <si>
+    <t>DRIVING W/LIC REVOKED</t>
+  </si>
+  <si>
+    <t>OFA THREATS, PANHANDLING</t>
+  </si>
+  <si>
+    <t>IMPEDE THE FLOW OF TRAFFIC</t>
+  </si>
+  <si>
+    <t>CONSUME ON UNAUTHORIZED PREMISE</t>
+  </si>
+  <si>
+    <t>CONSUMING ON OFF PREMISES</t>
+  </si>
+  <si>
+    <t>FTA (DWLR NOT IMPAIRED, NO LIABILITY INSURANCE)</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED USE OF MOTOR VEHICLE</t>
+  </si>
+  <si>
+    <t>EXPLOIT DISABLE/ELDER CAPACITY</t>
+  </si>
+  <si>
+    <t>DRUGS-MISD POSS</t>
+  </si>
+  <si>
+    <t>MISUSE OF 911</t>
+  </si>
+  <si>
+    <t>FRAUD-OBT PROPERTY</t>
   </si>
   <si>
     <t>OFA SECOND DEGREE TRESPASS</t>
   </si>
   <si>
+    <t>ASSAULT-SIMPLE</t>
+  </si>
+  <si>
+    <t>FORGERY</t>
+  </si>
+  <si>
+    <t>DEFRAUD INNKEEPER</t>
+  </si>
+  <si>
+    <t>OFA SIMPLE ASSAULT</t>
+  </si>
+  <si>
+    <t>RAPE-2ND DEGREE</t>
+  </si>
+  <si>
+    <t>RESIST, DELAY AND OBSTRUCT</t>
+  </si>
+  <si>
+    <t>EMBEZZLEMENT OF STATE PROPERTY</t>
+  </si>
+  <si>
+    <t>RECKLESS DRIVING</t>
+  </si>
+  <si>
+    <t>IMPAIRED DRIVING DWI OFA</t>
+  </si>
+  <si>
+    <t>RAPE 1ST DEGREE</t>
+  </si>
+  <si>
     <t>ATTEMPTED BREAKING/ENTER-MISD</t>
   </si>
   <si>
+    <t>ASSAULT ON EMERGENCY PERSONNEL</t>
+  </si>
+  <si>
+    <t>OFA DRUNK AND DISRUPTIVE</t>
+  </si>
+  <si>
+    <t>ASSAULT INFLICTING SERIOUS INJURY</t>
+  </si>
+  <si>
     <t>ATTEMPTED BURGLARY-2ND DEGREE</t>
   </si>
   <si>
+    <t>FAIL TO APPEAR/COMPL ON A FELONY</t>
+  </si>
+  <si>
+    <t>DRUGS-POSS SCHED VI</t>
+  </si>
+  <si>
+    <t>LIQUOR  - POSSESSION</t>
+  </si>
+  <si>
+    <t>LARCENY OF MOTOR VEHICLE</t>
+  </si>
+  <si>
+    <t>OFA M LARCENY</t>
+  </si>
+  <si>
+    <t>PROVISIONAL LICENSEE</t>
+  </si>
+  <si>
+    <t>SECOND DEGREE KIDNAPPING</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE-ASSAULTIVE/ NO INJURY</t>
+  </si>
+  <si>
+    <t>PHYSICAL SIMPLE ASSAULT-NON AGGRAVATED</t>
+  </si>
+  <si>
+    <t>ASSAULT ON FEMALE/SIMPLE ASSAULT</t>
+  </si>
+  <si>
+    <t>COMMUNICATING THREATS</t>
+  </si>
+  <si>
+    <t>LARCENY -  BEER</t>
+  </si>
+  <si>
+    <t>FAIL RETUR RENT PROP</t>
+  </si>
+  <si>
+    <t>INTERFERE W/EMERGENCY COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>ASSAULT BY STRANGULATION</t>
+  </si>
+  <si>
+    <t>VIOLATION DVPO</t>
+  </si>
+  <si>
+    <t>POSSESS HEROIN</t>
+  </si>
+  <si>
+    <t>POSSESS ON UNAUTHORIZED PREMISES</t>
+  </si>
+  <si>
+    <t>POSS STOLEN MOTOR VEH</t>
+  </si>
+  <si>
+    <t>FTA ALCOHOL VIOLATION</t>
+  </si>
+  <si>
     <t>CREDIT CARD FRAUD</t>
   </si>
   <si>
-    <t>NDL - OPERATOR OR CHAUFFER</t>
-  </si>
-  <si>
-    <t>OFA DRUNK AND DISRUPTIVE</t>
-  </si>
-  <si>
-    <t>ASSAULT ON OFFICER/SIMPLE ASSAULT</t>
-  </si>
-  <si>
-    <t>RESIST, DELAY AND OBSTRUCT</t>
-  </si>
-  <si>
-    <t>VIOLATION DVPO</t>
-  </si>
-  <si>
-    <t>POSS STOLEN MOTOR VEH</t>
-  </si>
-  <si>
-    <t>FRAUD-OBT PROPERTY</t>
-  </si>
-  <si>
-    <t>RAPE-2ND DEGREE</t>
-  </si>
-  <si>
-    <t>PHYSICAL SIMPLE ASSAULT-NON AGGRAVATED</t>
-  </si>
-  <si>
-    <t>PROVISIONAL LICENSEE</t>
-  </si>
-  <si>
-    <t>DRIVING W/LIC REVOKED</t>
-  </si>
-  <si>
-    <t>FTA-DWLR</t>
-  </si>
-  <si>
-    <t>CONSUME ON UNAUTHORIZED PREMISE</t>
-  </si>
-  <si>
-    <t>LARCENY OF MOTOR VEHICLE</t>
-  </si>
-  <si>
-    <t>ASSAULT ON FEMALE/SIMPLE ASSAULT</t>
-  </si>
-  <si>
-    <t>POSS OR MANUFACUTRE OF FRADUENT FORMS OF IDENTIFICATION</t>
-  </si>
-  <si>
-    <t>ASSAULT BY STRANGULATION</t>
+    <t>SEX OFFENDER UNLAWFULLY ON PREMISES.</t>
   </si>
   <si>
     <t>FINANCIAL CARD THEFT</t>
   </si>
   <si>
-    <t>COMMON LAW-GOING ARMED</t>
-  </si>
-  <si>
-    <t>ASSAULT INFLICTING SERIOUS INJURY</t>
-  </si>
-  <si>
-    <t>FTA (DWLR NOT IMPAIRED, NO LIABILITY INSURANCE)</t>
-  </si>
-  <si>
-    <t>POSSESS HEROIN</t>
-  </si>
-  <si>
-    <t>RAPE 1ST DEGREE</t>
-  </si>
-  <si>
-    <t>AWIK/SERIOUS INJURY</t>
+    <t>CONCEALING MDSE/SHOPLIFTING</t>
   </si>
   <si>
     <t>FAIL TO BURN HEADLAMPS</t>
   </si>
   <si>
-    <t>MISUSE OF 911</t>
-  </si>
-  <si>
-    <t>ASSAULT ON EMERGENCY PERSONNEL</t>
-  </si>
-  <si>
-    <t>PAROLE OR PROBATION VIOLATION</t>
-  </si>
-  <si>
-    <t>FORGERY</t>
-  </si>
-  <si>
-    <t>PEEPING</t>
-  </si>
-  <si>
-    <t>DRUGS-MISD POSS</t>
-  </si>
-  <si>
-    <t>OFA M LARCENY</t>
-  </si>
-  <si>
-    <t>RECKLESS DRIVING</t>
-  </si>
-  <si>
-    <t>SELL COCAINE</t>
-  </si>
-  <si>
-    <t>OFA SIMPLE ASSAULT</t>
-  </si>
-  <si>
-    <t>CONCEALING MDSE/SHOPLIFTING</t>
-  </si>
-  <si>
-    <t>LIQUOR  - POSSESSION</t>
-  </si>
-  <si>
-    <t>IMPAIRED DRIVING DWI OFA</t>
-  </si>
-  <si>
-    <t>FTA ALCOHOL VIOLATION</t>
-  </si>
-  <si>
-    <t>HIT/RUN LEAVE SCENE OF PROPERTY DAMAGE</t>
-  </si>
-  <si>
-    <t>CHILD ABUSE-ASSAULTIVE/ NO INJURY</t>
-  </si>
-  <si>
-    <t>HIT &amp; RUN - PD</t>
-  </si>
-  <si>
-    <t>EXPLOIT DISABLE/ELDER CAPACITY</t>
-  </si>
-  <si>
-    <t>DEFRAUD INNKEEPER</t>
-  </si>
-  <si>
-    <t>VANDALISM</t>
-  </si>
-  <si>
-    <t>INTERFERE W/EMERGENCY COMMUNICATIONS</t>
-  </si>
-  <si>
-    <t>IMPEDE THE FLOW OF TRAFFIC</t>
-  </si>
-  <si>
     <t>FAIL TO REGISTER - SEX OFFENDER REGISTRATION</t>
-  </si>
-  <si>
-    <t>OFA THREATS, PANHANDLING</t>
-  </si>
-  <si>
-    <t>CRUELTY TO ANIMALS (CITY ORDINANCE)</t>
-  </si>
-  <si>
-    <t>SEX OFFENDER UNLAWFULLY ON PREMISES.</t>
-  </si>
-  <si>
-    <t>EMBEZZLEMENT OF STATE PROPERTY</t>
-  </si>
-  <si>
-    <t>COMMUNICATING THREATS</t>
-  </si>
-  <si>
-    <t>CONSUMING ON OFF PREMISES</t>
-  </si>
-  <si>
-    <t>FAIL RETUR RENT PROP</t>
-  </si>
-  <si>
-    <t>LARCENY -  BEER</t>
-  </si>
-  <si>
-    <t>ASSAULT-SIMPLE</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED USE OF MOTOR VEHICLE</t>
-  </si>
-  <si>
-    <t>POSSESS ON UNAUTHORIZED PREMISES</t>
-  </si>
-  <si>
-    <t>SECOND DEGREE KIDNAPPING</t>
-  </si>
-  <si>
-    <t>COMMUNICATE THREATS</t>
-  </si>
-  <si>
-    <t>RESIST DELAY AND OBSTRUCT</t>
-  </si>
-  <si>
-    <t>DRUGS-POSS SCHED VI</t>
-  </si>
-  <si>
-    <t>FTA OPEN CONTAINER</t>
-  </si>
-  <si>
-    <t>FAIL TO APPEAR/COMPL ON A FELONY</t>
   </si>
   <si>
     <t>n</t>
@@ -423,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -431,12 +431,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +463,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2" s="1">
         <v>121</v>
       </c>
     </row>
@@ -469,7 +471,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3" s="1">
         <v>60</v>
       </c>
     </row>
@@ -477,7 +479,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4" s="1">
         <v>32</v>
       </c>
     </row>
@@ -485,7 +487,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5" s="1">
         <v>26</v>
       </c>
     </row>
@@ -493,7 +495,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6" s="1">
         <v>18</v>
       </c>
     </row>
@@ -501,7 +503,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7" s="1">
         <v>15</v>
       </c>
     </row>
@@ -509,7 +511,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8" s="1">
         <v>13</v>
       </c>
     </row>
@@ -517,7 +519,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9" s="1">
         <v>12</v>
       </c>
     </row>
@@ -525,7 +527,7 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10" s="1">
         <v>11</v>
       </c>
     </row>
@@ -533,7 +535,7 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11" s="1">
         <v>11</v>
       </c>
     </row>
@@ -541,7 +543,7 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
     </row>
@@ -549,7 +551,7 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13" s="1">
         <v>9</v>
       </c>
     </row>
@@ -557,7 +559,7 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14" s="1">
         <v>8</v>
       </c>
     </row>
@@ -565,7 +567,7 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15" s="1">
         <v>7</v>
       </c>
     </row>
@@ -573,7 +575,7 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16" s="1">
         <v>7</v>
       </c>
     </row>
@@ -581,7 +583,7 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17" s="1">
         <v>6</v>
       </c>
     </row>
@@ -589,7 +591,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18" s="1">
         <v>6</v>
       </c>
     </row>
@@ -597,7 +599,7 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19" s="1">
         <v>6</v>
       </c>
     </row>
@@ -605,7 +607,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20" s="1">
         <v>6</v>
       </c>
     </row>
@@ -613,7 +615,7 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21" s="1">
         <v>5</v>
       </c>
     </row>
@@ -621,7 +623,7 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22" s="1">
         <v>5</v>
       </c>
     </row>
@@ -629,7 +631,7 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23" s="1">
         <v>5</v>
       </c>
     </row>
@@ -637,7 +639,7 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24" s="1">
         <v>5</v>
       </c>
     </row>
@@ -645,7 +647,7 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25" s="1">
         <v>5</v>
       </c>
     </row>
@@ -653,7 +655,7 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26" s="1">
         <v>5</v>
       </c>
     </row>
@@ -661,7 +663,7 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27" s="1">
         <v>5</v>
       </c>
     </row>
@@ -669,7 +671,7 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28" s="1">
         <v>4</v>
       </c>
     </row>
@@ -677,7 +679,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29" s="1">
         <v>4</v>
       </c>
     </row>
@@ -685,7 +687,7 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30" s="1">
         <v>4</v>
       </c>
     </row>
@@ -693,7 +695,7 @@
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31" s="1">
         <v>4</v>
       </c>
     </row>
@@ -701,7 +703,7 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32" s="1">
         <v>4</v>
       </c>
     </row>
@@ -709,7 +711,7 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
     </row>
@@ -717,7 +719,7 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34" s="1">
         <v>3</v>
       </c>
     </row>
@@ -725,7 +727,7 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35" s="1">
         <v>3</v>
       </c>
     </row>
@@ -733,7 +735,7 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36" s="1">
         <v>3</v>
       </c>
     </row>
@@ -741,7 +743,7 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37" s="1">
         <v>3</v>
       </c>
     </row>
@@ -749,7 +751,7 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38" s="1">
         <v>3</v>
       </c>
     </row>
@@ -757,7 +759,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39" s="1">
         <v>3</v>
       </c>
     </row>
@@ -765,7 +767,7 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40" s="1">
         <v>3</v>
       </c>
     </row>
@@ -773,7 +775,7 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41" s="1">
         <v>2</v>
       </c>
     </row>
@@ -781,7 +783,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42" s="1">
         <v>2</v>
       </c>
     </row>
@@ -789,7 +791,7 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43" s="1">
         <v>2</v>
       </c>
     </row>
@@ -797,7 +799,7 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44" s="1">
         <v>2</v>
       </c>
     </row>
@@ -805,7 +807,7 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45" s="1">
         <v>2</v>
       </c>
     </row>
@@ -813,7 +815,7 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46" s="1">
         <v>2</v>
       </c>
     </row>
@@ -821,7 +823,7 @@
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47" s="1">
         <v>2</v>
       </c>
     </row>
@@ -829,7 +831,7 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48" s="1">
         <v>2</v>
       </c>
     </row>
@@ -837,7 +839,7 @@
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49" s="1">
         <v>2</v>
       </c>
     </row>
@@ -845,7 +847,7 @@
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50" s="1">
         <v>2</v>
       </c>
     </row>
@@ -853,7 +855,7 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51" s="1">
         <v>2</v>
       </c>
     </row>
@@ -861,7 +863,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52" s="1">
         <v>2</v>
       </c>
     </row>
@@ -869,7 +871,7 @@
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53" s="1">
         <v>2</v>
       </c>
     </row>
@@ -877,7 +879,7 @@
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54" s="1">
         <v>2</v>
       </c>
     </row>
@@ -885,7 +887,7 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55" s="1">
         <v>2</v>
       </c>
     </row>
@@ -893,7 +895,7 @@
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56" s="1">
         <v>2</v>
       </c>
     </row>
@@ -901,7 +903,7 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57" s="1">
         <v>2</v>
       </c>
     </row>
@@ -909,7 +911,7 @@
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58" s="1">
         <v>2</v>
       </c>
     </row>
@@ -917,7 +919,7 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59" s="1">
         <v>2</v>
       </c>
     </row>
@@ -925,7 +927,7 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60" s="1">
         <v>2</v>
       </c>
     </row>
@@ -933,7 +935,7 @@
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -941,7 +943,7 @@
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62" s="1">
         <v>1</v>
       </c>
     </row>
@@ -949,7 +951,7 @@
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63" s="1">
         <v>1</v>
       </c>
     </row>
@@ -957,7 +959,7 @@
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64" s="1">
         <v>1</v>
       </c>
     </row>
@@ -965,7 +967,7 @@
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -973,7 +975,7 @@
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -981,7 +983,7 @@
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67" s="1">
         <v>1</v>
       </c>
     </row>
@@ -989,7 +991,7 @@
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68" s="1">
         <v>1</v>
       </c>
     </row>
@@ -997,7 +999,7 @@
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1005,7 +1007,7 @@
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1013,7 +1015,7 @@
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1021,7 +1023,7 @@
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1029,7 +1031,7 @@
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1037,7 +1039,7 @@
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1045,7 +1047,7 @@
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1053,7 +1055,7 @@
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1061,7 +1063,7 @@
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1069,7 +1071,7 @@
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1077,7 +1079,7 @@
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1085,7 +1087,7 @@
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1093,7 +1095,7 @@
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1101,7 +1103,7 @@
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1109,7 +1111,7 @@
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1117,7 +1119,7 @@
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1125,7 +1127,7 @@
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1133,7 +1135,7 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1141,7 +1143,7 @@
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1149,7 +1151,7 @@
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1157,7 +1159,7 @@
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1165,7 +1167,7 @@
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1175,7 @@
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1181,7 +1183,7 @@
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="0">
+      <c r="B92" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1189,7 +1191,7 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B93" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1197,7 +1199,7 @@
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B94" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1205,7 +1207,7 @@
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="0">
+      <c r="B95" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1213,7 +1215,7 @@
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B96" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1221,7 +1223,7 @@
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="0">
+      <c r="B97" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1229,7 +1231,7 @@
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B98" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1237,7 +1239,7 @@
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B99" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1245,7 +1247,7 @@
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="0">
+      <c r="B100" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1253,7 +1255,7 @@
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1261,7 +1263,7 @@
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="0">
+      <c r="B102" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1269,7 +1271,7 @@
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="0">
+      <c r="B103" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1277,7 +1279,7 @@
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="0">
+      <c r="B104" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1287,7 @@
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="0">
+      <c r="B105" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1295,7 @@
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="0">
+      <c r="B106" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1301,7 +1303,7 @@
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="0">
+      <c r="B107" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1309,7 +1311,7 @@
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="0">
+      <c r="B108" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1317,7 +1319,7 @@
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="0">
+      <c r="B109" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1325,7 +1327,7 @@
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="0">
+      <c r="B110" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1333,7 +1335,7 @@
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="0">
+      <c r="B111" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1341,7 +1343,7 @@
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="0">
+      <c r="B112" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1349,7 +1351,7 @@
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="0">
+      <c r="B113" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1357,7 +1359,7 @@
       <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="0">
+      <c r="B114" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1365,7 +1367,7 @@
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="0">
+      <c r="B115" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1373,7 +1375,7 @@
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="0">
+      <c r="B116" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1381,7 +1383,7 @@
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="0">
+      <c r="B117" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1389,7 +1391,7 @@
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="0">
+      <c r="B118" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1397,7 +1399,7 @@
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="0">
+      <c r="B119" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1405,7 +1407,7 @@
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="0">
+      <c r="B120" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1413,7 +1415,7 @@
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="0">
+      <c r="B121" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1421,7 +1423,7 @@
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="0">
+      <c r="B122" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1429,7 +1431,7 @@
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="0">
+      <c r="B123" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1437,7 +1439,7 @@
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="0">
+      <c r="B124" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1445,7 +1447,7 @@
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="0">
+      <c r="B125" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1453,7 +1455,7 @@
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="0">
+      <c r="B126" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1461,7 +1463,7 @@
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="0">
+      <c r="B127" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1469,7 +1471,7 @@
       <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="0">
+      <c r="B128" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1477,7 +1479,7 @@
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="0">
+      <c r="B129" s="1">
         <v>1</v>
       </c>
     </row>
